--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -674,7 +674,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D10" si="5">$A$1*1.1</f>
+        <f t="shared" ref="D5:D38" si="5">$A$1*1.1</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E5" s="1">
@@ -938,7 +938,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f>$A$1 *1.1/2</f>
+        <f>$A$1*1.1/2</f>
         <v>49.500000000000007</v>
       </c>
       <c r="E11" s="1">
@@ -982,12 +982,12 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" ref="D12:D38" si="9">$A$1 *1.1/2</f>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="0"/>
-        <v>3242.2500000000005</v>
+        <v>6484.5000000000009</v>
       </c>
       <c r="F12" s="3">
         <f t="shared" si="6"/>
@@ -1011,7 +1011,7 @@
       </c>
       <c r="K12" s="1">
         <f t="shared" si="3"/>
-        <v>3252.2500000000005</v>
+        <v>6494.5000000000009</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1026,12 +1026,12 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="0"/>
-        <v>3217.5000000000005</v>
+        <v>6435.0000000000009</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="6"/>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K13" s="1">
         <f t="shared" si="3"/>
-        <v>3237.5000000000005</v>
+        <v>6455.0000000000009</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1070,12 +1070,12 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="0"/>
-        <v>3192.7500000000005</v>
+        <v>6385.5000000000009</v>
       </c>
       <c r="F14" s="3">
         <f t="shared" si="6"/>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="K14" s="1">
         <f t="shared" si="3"/>
-        <v>3222.7500000000005</v>
+        <v>6415.5000000000009</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1114,12 +1114,12 @@
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="0"/>
-        <v>3168.0000000000005</v>
+        <v>6336.0000000000009</v>
       </c>
       <c r="F15" s="3">
         <f t="shared" si="6"/>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="K15" s="1">
         <f t="shared" si="3"/>
-        <v>3208.0000000000005</v>
+        <v>6376.0000000000009</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1158,12 +1158,12 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="0"/>
-        <v>3143.2500000000005</v>
+        <v>6286.5000000000009</v>
       </c>
       <c r="F16" s="3">
         <f t="shared" si="6"/>
@@ -1187,7 +1187,7 @@
       </c>
       <c r="K16" s="1">
         <f t="shared" si="3"/>
-        <v>3193.2500000000005</v>
+        <v>6336.5000000000009</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1202,12 +1202,12 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="0"/>
-        <v>3118.5000000000005</v>
+        <v>6237.0000000000009</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="6"/>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="K17" s="1">
         <f t="shared" si="3"/>
-        <v>3178.5000000000005</v>
+        <v>6297.0000000000009</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1246,12 +1246,12 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" si="0"/>
-        <v>3093.7500000000005</v>
+        <v>6187.5000000000009</v>
       </c>
       <c r="F18" s="3">
         <f t="shared" si="6"/>
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K18" s="1">
         <f t="shared" si="3"/>
-        <v>3163.7500000000005</v>
+        <v>6257.5000000000009</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1290,12 +1290,12 @@
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="0"/>
-        <v>3069.0000000000005</v>
+        <v>6138.0000000000009</v>
       </c>
       <c r="F19" s="3">
         <f t="shared" si="6"/>
@@ -1319,7 +1319,7 @@
       </c>
       <c r="K19" s="1">
         <f t="shared" si="3"/>
-        <v>3149.0000000000005</v>
+        <v>6218.0000000000009</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1334,12 +1334,12 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="0"/>
-        <v>3044.2500000000005</v>
+        <v>6088.5000000000009</v>
       </c>
       <c r="F20" s="3">
         <f t="shared" si="6"/>
@@ -1363,7 +1363,7 @@
       </c>
       <c r="K20" s="1">
         <f t="shared" si="3"/>
-        <v>3134.2500000000005</v>
+        <v>6178.5000000000009</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1378,12 +1378,12 @@
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" si="0"/>
-        <v>3019.5000000000005</v>
+        <v>6039.0000000000009</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="6"/>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="K21" s="1">
         <f t="shared" si="3"/>
-        <v>3119.5000000000005</v>
+        <v>6139.0000000000009</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1422,12 +1422,12 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="0"/>
-        <v>2994.7500000000005</v>
+        <v>5989.5000000000009</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="6"/>
@@ -1451,7 +1451,7 @@
       </c>
       <c r="K22" s="1">
         <f t="shared" si="3"/>
-        <v>3104.7500000000005</v>
+        <v>6099.5000000000009</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1466,12 +1466,12 @@
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="0"/>
-        <v>2970.0000000000005</v>
+        <v>5940.0000000000009</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="6"/>
@@ -1495,7 +1495,7 @@
       </c>
       <c r="K23" s="1">
         <f t="shared" si="3"/>
-        <v>3090.0000000000005</v>
+        <v>6060.0000000000009</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1510,12 +1510,12 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E24" s="1">
         <f t="shared" si="0"/>
-        <v>2945.2500000000005</v>
+        <v>5890.5000000000009</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="6"/>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="K24" s="1">
         <f t="shared" si="3"/>
-        <v>3075.2500000000005</v>
+        <v>6020.5000000000009</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1554,12 +1554,12 @@
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="0"/>
-        <v>2920.5000000000005</v>
+        <v>5841.0000000000009</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="6"/>
@@ -1583,7 +1583,7 @@
       </c>
       <c r="K25" s="1">
         <f t="shared" si="3"/>
-        <v>3060.5000000000005</v>
+        <v>5981.0000000000009</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1598,12 +1598,12 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="0"/>
-        <v>2895.7500000000005</v>
+        <v>5791.5000000000009</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="6"/>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="K26" s="1">
         <f t="shared" si="3"/>
-        <v>3045.7500000000005</v>
+        <v>5941.5000000000009</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1642,12 +1642,12 @@
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="0"/>
-        <v>2871.0000000000005</v>
+        <v>5742.0000000000009</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="6"/>
@@ -1671,7 +1671,7 @@
       </c>
       <c r="K27" s="1">
         <f t="shared" si="3"/>
-        <v>3031.0000000000005</v>
+        <v>5902.0000000000009</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1686,12 +1686,12 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="0"/>
-        <v>2846.2500000000005</v>
+        <v>5692.5000000000009</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="6"/>
@@ -1715,7 +1715,7 @@
       </c>
       <c r="K28" s="1">
         <f t="shared" si="3"/>
-        <v>3016.2500000000005</v>
+        <v>5862.5000000000009</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1730,12 +1730,12 @@
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="0"/>
-        <v>2821.5000000000005</v>
+        <v>5643.0000000000009</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="6"/>
@@ -1759,7 +1759,7 @@
       </c>
       <c r="K29" s="1">
         <f t="shared" si="3"/>
-        <v>3001.5000000000005</v>
+        <v>5823.0000000000009</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1774,12 +1774,12 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" si="0"/>
-        <v>2796.7500000000005</v>
+        <v>5593.5000000000009</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="6"/>
@@ -1803,7 +1803,7 @@
       </c>
       <c r="K30" s="1">
         <f t="shared" si="3"/>
-        <v>2986.7500000000005</v>
+        <v>5783.5000000000009</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1818,12 +1818,12 @@
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="0"/>
-        <v>2772.0000000000005</v>
+        <v>5544.0000000000009</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="6"/>
@@ -1847,7 +1847,7 @@
       </c>
       <c r="K31" s="1">
         <f t="shared" si="3"/>
-        <v>2972.0000000000005</v>
+        <v>5744.0000000000009</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1862,12 +1862,12 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" si="0"/>
-        <v>2747.2500000000005</v>
+        <v>5494.5000000000009</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="6"/>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="K32" s="1">
         <f t="shared" si="3"/>
-        <v>2957.2500000000005</v>
+        <v>5704.5000000000009</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1906,12 +1906,12 @@
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="0"/>
-        <v>2722.5000000000005</v>
+        <v>5445.0000000000009</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="6"/>
@@ -1935,7 +1935,7 @@
       </c>
       <c r="K33" s="1">
         <f t="shared" si="3"/>
-        <v>2942.5000000000005</v>
+        <v>5665.0000000000009</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1950,12 +1950,12 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" si="0"/>
-        <v>2697.7500000000005</v>
+        <v>5395.5000000000009</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="6"/>
@@ -1979,7 +1979,7 @@
       </c>
       <c r="K34" s="1">
         <f t="shared" si="3"/>
-        <v>2927.7500000000005</v>
+        <v>5625.5000000000009</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -1994,12 +1994,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>2673.0000000000005</v>
+        <v>5346.0000000000009</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="6"/>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>2913.0000000000005</v>
+        <v>5586.0000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2038,12 +2038,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>2648.2500000000005</v>
+        <v>5296.5000000000009</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="6"/>
@@ -2067,7 +2067,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>2898.2500000000005</v>
+        <v>5546.5000000000009</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2082,12 +2082,12 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>2623.5000000000005</v>
+        <v>5247.0000000000009</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="6"/>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>2883.5000000000005</v>
+        <v>5507.0000000000009</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2126,12 +2126,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="9"/>
-        <v>49.500000000000007</v>
+        <f t="shared" si="5"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>2598.7500000000005</v>
+        <v>5197.5000000000009</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="6"/>
@@ -2155,7 +2155,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>2868.7500000000005</v>
+        <v>5467.5000000000009</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
@@ -2164,7 +2164,7 @@
       </c>
       <c r="C41" s="2">
         <f>SUM(K4:K39)</f>
-        <v>133024.50000000003</v>
+        <v>211878.00000000003</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -2,9 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\пк\OneDrive\Рабочий стол\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -21,31 +26,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t>Общая сумма, руб.</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрчоки, дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
-    <t>Площадь, кв.м.</t>
-  </si>
-  <si>
-    <t>Тариф, руб./кв.м.</t>
-  </si>
-  <si>
-    <t>Сумма, руб.</t>
+    <t>Фамилия квартиросъёмщика</t>
   </si>
   <si>
     <t>Срок оплаты</t>
@@ -54,124 +38,145 @@
     <t>Дата оплаты</t>
   </si>
   <si>
-    <t>Просрочка, дней</t>
-  </si>
-  <si>
-    <t>Пенни за 1 день, руб.</t>
-  </si>
-  <si>
-    <t>Штраф, руб.</t>
-  </si>
-  <si>
-    <t>Итого, руб.</t>
+    <t>Аллаяров</t>
+  </si>
+  <si>
+    <t>Аминов</t>
+  </si>
+  <si>
+    <t>Арсланов</t>
+  </si>
+  <si>
+    <t>Байков</t>
+  </si>
+  <si>
+    <t>Бондаренко</t>
+  </si>
+  <si>
+    <t>Бубнов</t>
+  </si>
+  <si>
+    <t>Валиев</t>
+  </si>
+  <si>
+    <t>Галеев</t>
+  </si>
+  <si>
+    <t>Гилемов</t>
+  </si>
+  <si>
+    <t>Ибадов</t>
+  </si>
+  <si>
+    <t>Исхаков</t>
+  </si>
+  <si>
+    <t>Кириллова</t>
+  </si>
+  <si>
+    <t>Кочетков</t>
+  </si>
+  <si>
+    <t>Марданов</t>
+  </si>
+  <si>
+    <t>Машуров</t>
+  </si>
+  <si>
+    <t>Медведкова</t>
+  </si>
+  <si>
+    <t>Миронов</t>
+  </si>
+  <si>
+    <t>Орлов</t>
+  </si>
+  <si>
+    <t>Раин</t>
+  </si>
+  <si>
+    <t>Редькин</t>
+  </si>
+  <si>
+    <t>Сайфулин</t>
+  </si>
+  <si>
+    <t>Сеняшина</t>
+  </si>
+  <si>
+    <t>Соловьева</t>
+  </si>
+  <si>
+    <t>Табаков</t>
+  </si>
+  <si>
+    <t>Торощина</t>
+  </si>
+  <si>
+    <t>Федько</t>
+  </si>
+  <si>
+    <t>Филимонов</t>
+  </si>
+  <si>
+    <t>Хакимова</t>
+  </si>
+  <si>
+    <t>Хамидуллин</t>
+  </si>
+  <si>
+    <t>Черемухин</t>
+  </si>
+  <si>
+    <t>Шайхутдинов</t>
+  </si>
+  <si>
+    <t>Якубов</t>
+  </si>
+  <si>
+    <t>Алимжанов</t>
+  </si>
+  <si>
+    <t>Аллаярова</t>
   </si>
   <si>
     <t>Курочкин</t>
   </si>
   <si>
-    <t xml:space="preserve">Кочатков </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кирилова </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Исхаков </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ибадов </t>
-  </si>
-  <si>
-    <t>Гилемов</t>
-  </si>
-  <si>
-    <t>Галиев</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Валиев </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бубнов </t>
-  </si>
-  <si>
-    <t>Бондаренко</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Байков </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Арсланов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алимжанов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аминов </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аллаярова </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аллаяров </t>
+    <t>Площадь, кв.м</t>
+  </si>
+  <si>
+    <t>Сумма, руб</t>
+  </si>
+  <si>
+    <t>Просрочка, дни</t>
   </si>
   <si>
     <t>Крылов</t>
   </si>
   <si>
-    <t>Марданов</t>
-  </si>
-  <si>
-    <t>Машуров</t>
-  </si>
-  <si>
-    <t>Медведкова</t>
-  </si>
-  <si>
-    <t>Миронов</t>
-  </si>
-  <si>
-    <t>Орлов</t>
-  </si>
-  <si>
-    <t>Раин</t>
-  </si>
-  <si>
-    <t>Редькин</t>
-  </si>
-  <si>
-    <t>Сайфуллин</t>
-  </si>
-  <si>
-    <t>Сеняшина</t>
-  </si>
-  <si>
-    <t>Соловьёва</t>
-  </si>
-  <si>
-    <t>Табаков</t>
-  </si>
-  <si>
-    <t>Тарощина</t>
-  </si>
-  <si>
-    <t>Федько</t>
-  </si>
-  <si>
-    <t>Филимонов</t>
-  </si>
-  <si>
-    <t>Хакимова</t>
-  </si>
-  <si>
-    <t>Хамидуллин</t>
-  </si>
-  <si>
-    <t>Черёмухин</t>
-  </si>
-  <si>
-    <t>Шайхутдинов</t>
-  </si>
-  <si>
-    <t>Якубов</t>
+    <t>Тариф, руб/кв.м</t>
+  </si>
+  <si>
+    <t>Итого, руб</t>
+  </si>
+  <si>
+    <t>Штраф, руб</t>
+  </si>
+  <si>
+    <t>Пени за день, руб</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб</t>
   </si>
 </sst>
 </file>
@@ -180,11 +185,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Times New Roman"/>
       <family val="2"/>
-      <scheme val="minor"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -195,10 +200,10 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <color rgb="FF282C34"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -224,17 +229,19 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -270,7 +277,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -282,7 +289,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -329,6 +336,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -364,6 +388,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -516,74 +557,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="26.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.33203125" customWidth="1"/>
-    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="34.69921875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.19921875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="14.19921875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.8984375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="11" style="4" customWidth="1"/>
+    <col min="11" max="11" width="10.3984375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>90</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -603,1599 +653,1492 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3-F3&lt;0,0,G3-F3)</f>
+        <f>IF(F3&gt;G3,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f>J3+E3</f>
+        <f>E3+J3</f>
         <v>6930.0000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1">
-        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>$A$1*1.1</f>
+        <f t="shared" ref="D4:D10" si="0">$A$1*1.1</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>6880.5000000000009</v>
       </c>
       <c r="F4" s="3">
-        <f>F3</f>
         <v>44813</v>
       </c>
       <c r="G4" s="3">
-        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="1">IF(G4-F4&lt;0,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(F4&gt;G4,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
-        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
         <v>6880.5000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="5">$A$1*1.1</f>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6831.0000000000009</v>
       </c>
       <c r="F5" s="3">
-        <f t="shared" ref="F5:F38" si="6">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="3">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6831.0000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f>C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6781.5000000000009</v>
       </c>
       <c r="F6" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6781.5000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="C7:C38" si="5">C6-0.5</f>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6732.0000000000009</v>
       </c>
       <c r="F7" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G7" s="3">
-        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6732.0000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6682.5000000000009</v>
       </c>
       <c r="F8" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G8" s="3">
-        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6682.5000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6633.0000000000009</v>
       </c>
       <c r="F9" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G9" s="3">
-        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6633.0000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6583.5000000000009</v>
       </c>
       <c r="F10" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G10" s="3">
-        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6583.5000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f>$A$1*1.1/2</f>
+        <f>D10/2</f>
         <v>49.500000000000007</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3267.0000000000005</v>
       </c>
       <c r="F11" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3267.0000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="5"/>
+        <f>$A$1*1.1</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6484.5000000000009</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6494.5000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" ref="D13:D38" si="6">$A$1*1.1</f>
+        <v>99.000000000000014</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>6435.0000000000009</v>
+      </c>
+      <c r="F13" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G13" s="3">
+        <v>44815</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="C13" s="1">
-        <f t="shared" si="4"/>
-        <v>65</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="5"/>
-        <v>99.000000000000014</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="0"/>
-        <v>6435.0000000000009</v>
-      </c>
-      <c r="F13" s="3">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G13" s="3">
-        <f t="shared" si="7"/>
-        <v>44815</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
       <c r="K13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6455.0000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6385.5000000000009</v>
       </c>
       <c r="F14" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G14" s="3">
-        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6415.5000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6336.0000000000009</v>
       </c>
       <c r="F15" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G15" s="3">
-        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6376.0000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6286.5000000000009</v>
       </c>
       <c r="F16" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G16" s="3">
-        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6336.5000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6237.0000000000009</v>
       </c>
       <c r="F17" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G17" s="3">
-        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6297.0000000000009</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6187.5000000000009</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6257.5000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6138.0000000000009</v>
       </c>
       <c r="F19" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G19" s="3">
-        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6218.0000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6088.5000000000009</v>
       </c>
       <c r="F20" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G20" s="3">
-        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6178.5000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6039.0000000000009</v>
       </c>
       <c r="F21" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G21" s="3">
-        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6139.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5989.5000000000009</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G22" s="3">
-        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6099.5000000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5940.0000000000009</v>
       </c>
       <c r="F23" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G23" s="3">
-        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6060.0000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5890.5000000000009</v>
       </c>
       <c r="F24" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G24" s="3">
-        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6020.5000000000009</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5841.0000000000009</v>
       </c>
       <c r="F25" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G25" s="3">
-        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5981.0000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5791.5000000000009</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G26" s="3">
-        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5941.5000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5742.0000000000009</v>
       </c>
       <c r="F27" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G27" s="3">
-        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5902.0000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5692.5000000000009</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G28" s="3">
-        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5862.5000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5643.0000000000009</v>
       </c>
       <c r="F29" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G29" s="3">
-        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5823.0000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5593.5000000000009</v>
       </c>
       <c r="F30" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G30" s="3">
-        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5783.5000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5544.0000000000009</v>
       </c>
       <c r="F31" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G31" s="3">
-        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5744.0000000000009</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5494.5000000000009</v>
       </c>
       <c r="F32" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G32" s="3">
-        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5704.5000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5445.0000000000009</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G33" s="3">
-        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5665.0000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5395.5000000000009</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G34" s="3">
-        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5625.5000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5346.0000000000009</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G35" s="3">
-        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5586.0000000000009</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5296.5000000000009</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G36" s="3">
-        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5546.5000000000009</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5247.0000000000009</v>
       </c>
       <c r="F37" s="3">
-        <f t="shared" si="6"/>
         <v>44813</v>
       </c>
       <c r="G37" s="3">
-        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5507.0000000000009</v>
       </c>
     </row>
-    <row r="38" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="5"/>
+        <v>52.5</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="6"/>
+        <v>99.000000000000014</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="1"/>
+        <v>5197.5000000000009</v>
+      </c>
+      <c r="F38" s="3">
+        <v>44813</v>
+      </c>
+      <c r="G38" s="3">
+        <v>44840</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+      <c r="I38" s="1">
+        <v>10</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="4"/>
+        <v>5467.5000000000009</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B40" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C40" s="5">
+        <f>SUM(K3:K38)</f>
+        <v>218808.00000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B41" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C41" s="4">
+        <f>AVERAGE(C3:C38)</f>
+        <v>61.25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="4">
+        <f>MAX(H3:H38)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" si="4"/>
-        <v>52.5</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="5"/>
-        <v>99.000000000000014</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="0"/>
-        <v>5197.5000000000009</v>
-      </c>
-      <c r="F38" s="3">
-        <f t="shared" si="6"/>
-        <v>44813</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="7"/>
-        <v>44840</v>
-      </c>
-      <c r="H38" s="1">
-        <f t="shared" si="1"/>
-        <v>27</v>
-      </c>
-      <c r="I38" s="1">
-        <f t="shared" si="8"/>
-        <v>10</v>
-      </c>
-      <c r="J38" s="1">
-        <f t="shared" si="2"/>
-        <v>270</v>
-      </c>
-      <c r="K38" s="1">
-        <f t="shared" si="3"/>
-        <v>5467.5000000000009</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2">
-        <f>SUM(K4:K39)</f>
-        <v>211878.00000000003</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" s="1">
-        <f>SUM(C4:C39)/COUNT(C4:C39)</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" s="1">
-        <f>MAX(H4:H39)</f>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1">
-        <f>MAX(K4:K39)</f>
-        <v>6880.5000000000009</v>
+      <c r="C43" s="4">
+        <f>MAX(E3:E38)</f>
+        <v>6930.0000000000009</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\пк\OneDrive\Рабочий стол\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -676,6 +676,7 @@
         <v>5</v>
       </c>
       <c r="C4" s="1">
+        <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
@@ -716,6 +717,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -756,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <f>C5-0.5</f>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -797,7 +799,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" ref="C7:C38" si="5">C6-0.5</f>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -639,7 +639,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>$A$1*1.1</f>
+        <f>IF(A3&lt;33,A$1*1.1,A$1/2)</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E3" s="1">
@@ -680,7 +680,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D10" si="0">$A$1*1.1</f>
+        <f t="shared" ref="D4:D38" si="0">IF(A4&lt;33,A$1*1.1,A$1/2)</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E4" s="1">
@@ -967,12 +967,12 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f>D10/2</f>
-        <v>49.500000000000007</v>
+        <f t="shared" si="0"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>3267.0000000000005</v>
+        <v>6534.0000000000009</v>
       </c>
       <c r="F11" s="3">
         <v>44813</v>
@@ -993,7 +993,7 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>3267.0000000000005</v>
+        <v>6534.0000000000009</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1008,7 +1008,7 @@
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f>$A$1*1.1</f>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E12" s="1">
@@ -1049,7 +1049,7 @@
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:D38" si="6">$A$1*1.1</f>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E13" s="1">
@@ -1090,7 +1090,7 @@
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E14" s="1">
@@ -1131,7 +1131,7 @@
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E15" s="1">
@@ -1172,7 +1172,7 @@
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E16" s="1">
@@ -1213,7 +1213,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E17" s="1">
@@ -1254,7 +1254,7 @@
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E18" s="1">
@@ -1295,7 +1295,7 @@
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E19" s="1">
@@ -1336,7 +1336,7 @@
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E20" s="1">
@@ -1377,7 +1377,7 @@
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E21" s="1">
@@ -1418,7 +1418,7 @@
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E22" s="1">
@@ -1459,7 +1459,7 @@
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E23" s="1">
@@ -1500,7 +1500,7 @@
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E24" s="1">
@@ -1541,7 +1541,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E25" s="1">
@@ -1582,7 +1582,7 @@
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E26" s="1">
@@ -1623,7 +1623,7 @@
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E27" s="1">
@@ -1664,7 +1664,7 @@
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E28" s="1">
@@ -1705,7 +1705,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E29" s="1">
@@ -1746,7 +1746,7 @@
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E30" s="1">
@@ -1787,7 +1787,7 @@
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E31" s="1">
@@ -1828,7 +1828,7 @@
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E32" s="1">
@@ -1869,7 +1869,7 @@
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E33" s="1">
@@ -1910,7 +1910,7 @@
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E34" s="1">
@@ -1951,12 +1951,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="6"/>
-        <v>99.000000000000014</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>5346.0000000000009</v>
+        <v>2430</v>
       </c>
       <c r="F35" s="3">
         <v>44813</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="4"/>
-        <v>5586.0000000000009</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1992,12 +1992,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="6"/>
-        <v>99.000000000000014</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="1"/>
-        <v>5296.5000000000009</v>
+        <v>2407.5</v>
       </c>
       <c r="F36" s="3">
         <v>44813</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="4"/>
-        <v>5546.5000000000009</v>
+        <v>2657.5</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2033,12 +2033,12 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
-        <v>99.000000000000014</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>5247.0000000000009</v>
+        <v>2385</v>
       </c>
       <c r="F37" s="3">
         <v>44813</v>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="4"/>
-        <v>5507.0000000000009</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2074,12 +2074,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
-        <v>99.000000000000014</v>
+        <f t="shared" si="0"/>
+        <v>45</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="1"/>
-        <v>5197.5000000000009</v>
+        <v>2362.5</v>
       </c>
       <c r="F38" s="3">
         <v>44813</v>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="4"/>
-        <v>5467.5000000000009</v>
+        <v>2632.5</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="C40" s="5">
         <f>SUM(K3:K38)</f>
-        <v>218808.00000000003</v>
+        <v>210573.00000000003</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -560,7 +560,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D38"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -639,7 +639,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>IF(A3&lt;33,A$1*1.1,A$1/2)</f>
+        <f>$A$1*1.1</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E3" s="1">
@@ -680,7 +680,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">IF(A4&lt;33,A$1*1.1,A$1/2)</f>
+        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E4" s="1">
@@ -717,7 +717,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f>C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -758,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="C5:C38" si="5">C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -967,12 +967,12 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>99.000000000000014</v>
+        <f>$A$1*1.1/2</f>
+        <v>49.500000000000007</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>6534.0000000000009</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="F11" s="3">
         <v>44813</v>
@@ -993,7 +993,7 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>6534.0000000000009</v>
+        <v>3267.0000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -1952,11 +1952,11 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>2430</v>
+        <v>5346.0000000000009</v>
       </c>
       <c r="F35" s="3">
         <v>44813</v>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="4"/>
-        <v>2670</v>
+        <v>5586.0000000000009</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
@@ -1993,11 +1993,11 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="1"/>
-        <v>2407.5</v>
+        <v>5296.5000000000009</v>
       </c>
       <c r="F36" s="3">
         <v>44813</v>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="4"/>
-        <v>2657.5</v>
+        <v>5546.5000000000009</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
@@ -2034,11 +2034,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>2385</v>
+        <v>5247.0000000000009</v>
       </c>
       <c r="F37" s="3">
         <v>44813</v>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="4"/>
-        <v>2645</v>
+        <v>5507.0000000000009</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
@@ -2075,11 +2075,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>99.000000000000014</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="1"/>
-        <v>2362.5</v>
+        <v>5197.5000000000009</v>
       </c>
       <c r="F38" s="3">
         <v>44813</v>
@@ -2100,7 +2100,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="4"/>
-        <v>2632.5</v>
+        <v>5467.5000000000009</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
@@ -2109,7 +2109,7 @@
       </c>
       <c r="C40" s="5">
         <f>SUM(K3:K38)</f>
-        <v>210573.00000000003</v>
+        <v>218808.00000000003</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -559,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -639,7 +639,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>$A$1*1.1</f>
+        <f>90*1.1</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E3" s="1">
@@ -653,7 +653,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(F3&gt;G3,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -680,7 +680,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">$A$1*1.1</f>
+        <f t="shared" ref="D4:D38" si="0">90*1.1</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E4" s="1">
@@ -694,7 +694,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(F4&gt;G4,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -758,7 +758,7 @@
         <v>7</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C5:C38" si="5">C5-0.5</f>
+        <f t="shared" ref="C6:C38" si="5">C5-0.5</f>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -967,7 +967,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f>$A$1*1.1/2</f>
+        <f>90*1.1/2</f>
         <v>49.500000000000007</v>
       </c>
       <c r="E11" s="1">

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A8AE46F-EF74-4DE2-A609-4AF7AC7CD81C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,13 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъёмщика</t>
+    <t>Фамилия квартиросъемщика</t>
+  </si>
+  <si>
+    <t>Площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Сумма, руб.</t>
   </si>
   <si>
     <t>Срок оплаты</t>
@@ -38,6 +45,33 @@
     <t>Дата оплаты</t>
   </si>
   <si>
+    <t>Штраф, руб.</t>
+  </si>
+  <si>
+    <t>Итого, руб.</t>
+  </si>
+  <si>
+    <t>Пенни за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Просрочка, дней</t>
+  </si>
+  <si>
+    <t>Тариф, руб./кв.м.</t>
+  </si>
+  <si>
+    <t>Общая сумма, руб.</t>
+  </si>
+  <si>
+    <t>Средняя площадь, кв.м.</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрчоки, дней</t>
+  </si>
+  <si>
+    <t>Максимальная сумма к оплате, руб.</t>
+  </si>
+  <si>
     <t>Аллаяров</t>
   </si>
   <si>
@@ -77,6 +111,9 @@
     <t>Кочетков</t>
   </si>
   <si>
+    <t>Крылов</t>
+  </si>
+  <si>
     <t>Марданов</t>
   </si>
   <si>
@@ -141,66 +178,23 @@
   </si>
   <si>
     <t>Курочкин</t>
-  </si>
-  <si>
-    <t>Площадь, кв.м</t>
-  </si>
-  <si>
-    <t>Сумма, руб</t>
-  </si>
-  <si>
-    <t>Просрочка, дни</t>
-  </si>
-  <si>
-    <t>Крылов</t>
-  </si>
-  <si>
-    <t>Тариф, руб/кв.м</t>
-  </si>
-  <si>
-    <t>Итого, руб</t>
-  </si>
-  <si>
-    <t>Штраф, руб</t>
-  </si>
-  <si>
-    <t>Пени за день, руб</t>
-  </si>
-  <si>
-    <t>Общая сумма, руб</t>
-  </si>
-  <si>
-    <t>Средняя площадь, кв.м</t>
-  </si>
-  <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
-    <t>Максимальная сумма, руб</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF282C34"/>
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="204"/>
@@ -226,21 +220,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -261,9 +252,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -277,7 +268,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -289,7 +280,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -301,9 +292,9 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -336,26 +327,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -388,26 +362,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -556,168 +513,162 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="34.69921875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.19921875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="14.19921875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="11.59765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.8984375" style="4" customWidth="1"/>
-    <col min="10" max="10" width="11" style="4" customWidth="1"/>
-    <col min="11" max="11" width="10.3984375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="3" max="3" width="23.42578125" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>90</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>90*1.1</f>
+        <f>IF(A3&lt;33,A$1*1.1,A$1/2)</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E3" s="1">
         <f>C3*D3</f>
         <v>6930.0000000000009</v>
       </c>
-      <c r="F3" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G3" s="3">
+      <c r="F3" s="2">
+        <v>44813</v>
+      </c>
+      <c r="G3" s="2">
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3&gt;F3,G3-F3,0)</f>
+        <f>IF(G3-F3&lt;0,0,G3-F3)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>H3*I3</f>
+        <f>I3*H3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f>E3+J3</f>
+        <f>J3+E3</f>
         <v>6930.0000000000009</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">90*1.1</f>
+        <f t="shared" ref="D4:D38" si="0">IF(A4&lt;33,A$1*1.1,A$1/2)</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E38" si="1">C4*D4</f>
         <v>6880.5000000000009</v>
       </c>
-      <c r="F4" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G4" s="3">
+      <c r="F4" s="2">
+        <f>F3</f>
+        <v>44813</v>
+      </c>
+      <c r="G4" s="2">
+        <f>G3+1</f>
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4&gt;F4,G4-F4,0)</f>
+        <f t="shared" ref="H4:H38" si="2">IF(G4-F4&lt;0,0,G4-F4)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">H4*I4</f>
+        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">E4+J4</f>
+        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
         <v>6880.5000000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
+      <c r="B5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="C5" s="1">
-        <f>C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
@@ -728,10 +679,12 @@
         <f t="shared" si="1"/>
         <v>6831.0000000000009</v>
       </c>
-      <c r="F5" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G5" s="3">
+      <c r="F5" s="2">
+        <f t="shared" ref="F5:F38" si="6">F4</f>
+        <v>44813</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" ref="G5:G38" si="7">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -739,6 +692,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
+        <f t="shared" ref="I5:I38" si="8">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -750,15 +704,15 @@
         <v>6831.0000000000009</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>7</v>
+      <c r="B6" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C6:C38" si="5">C5-0.5</f>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
@@ -769,10 +723,12 @@
         <f t="shared" si="1"/>
         <v>6781.5000000000009</v>
       </c>
-      <c r="F6" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="F6" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="7"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -780,6 +736,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -791,12 +748,12 @@
         <v>6781.5000000000009</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>8</v>
+      <c r="B7" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -810,10 +767,12 @@
         <f t="shared" si="1"/>
         <v>6732.0000000000009</v>
       </c>
-      <c r="F7" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="7"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -821,6 +780,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -832,12 +792,12 @@
         <v>6732.0000000000009</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>9</v>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -851,10 +811,12 @@
         <f t="shared" si="1"/>
         <v>6682.5000000000009</v>
       </c>
-      <c r="F8" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="F8" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="7"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -862,6 +824,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -873,12 +836,12 @@
         <v>6682.5000000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -892,10 +855,12 @@
         <f t="shared" si="1"/>
         <v>6633.0000000000009</v>
       </c>
-      <c r="F9" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="F9" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="7"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -903,6 +868,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -914,12 +880,12 @@
         <v>6633.0000000000009</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>11</v>
+      <c r="B10" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -933,10 +899,12 @@
         <f t="shared" si="1"/>
         <v>6583.5000000000009</v>
       </c>
-      <c r="F10" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="F10" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="7"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -944,6 +912,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -955,29 +924,31 @@
         <v>6583.5000000000009</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f>90*1.1/2</f>
-        <v>49.500000000000007</v>
+        <f t="shared" si="0"/>
+        <v>99.000000000000014</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>3267.0000000000005</v>
-      </c>
-      <c r="F11" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G11" s="3">
+        <v>6534.0000000000009</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -985,6 +956,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -993,15 +965,15 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="4"/>
-        <v>3267.0000000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+        <v>6534.0000000000009</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>13</v>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1015,10 +987,12 @@
         <f t="shared" si="1"/>
         <v>6484.5000000000009</v>
       </c>
-      <c r="F12" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G12" s="3">
+      <c r="F12" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="7"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1026,6 +1000,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1037,12 +1012,12 @@
         <v>6494.5000000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>14</v>
+      <c r="B13" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1056,10 +1031,12 @@
         <f t="shared" si="1"/>
         <v>6435.0000000000009</v>
       </c>
-      <c r="F13" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G13" s="3">
+      <c r="F13" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="7"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1067,6 +1044,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1078,12 +1056,12 @@
         <v>6455.0000000000009</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>15</v>
+      <c r="B14" s="4" t="s">
+        <v>26</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1097,10 +1075,12 @@
         <f t="shared" si="1"/>
         <v>6385.5000000000009</v>
       </c>
-      <c r="F14" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="F14" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="7"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1108,6 +1088,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1119,12 +1100,12 @@
         <v>6415.5000000000009</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>16</v>
+      <c r="B15" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1138,10 +1119,12 @@
         <f t="shared" si="1"/>
         <v>6336.0000000000009</v>
       </c>
-      <c r="F15" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="F15" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="7"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1149,6 +1132,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1160,12 +1144,12 @@
         <v>6376.0000000000009</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>42</v>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1179,10 +1163,12 @@
         <f t="shared" si="1"/>
         <v>6286.5000000000009</v>
       </c>
-      <c r="F16" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="F16" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G16" s="2">
+        <f t="shared" si="7"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1190,6 +1176,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1201,12 +1188,12 @@
         <v>6336.5000000000009</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>17</v>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1220,10 +1207,12 @@
         <f t="shared" si="1"/>
         <v>6237.0000000000009</v>
       </c>
-      <c r="F17" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G17" s="2">
+        <f t="shared" si="7"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1231,6 +1220,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1242,12 +1232,12 @@
         <v>6297.0000000000009</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>18</v>
+      <c r="B18" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1261,10 +1251,12 @@
         <f t="shared" si="1"/>
         <v>6187.5000000000009</v>
       </c>
-      <c r="F18" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G18" s="2">
+        <f t="shared" si="7"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1272,6 +1264,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1283,12 +1276,12 @@
         <v>6257.5000000000009</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>19</v>
+      <c r="B19" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1302,10 +1295,12 @@
         <f t="shared" si="1"/>
         <v>6138.0000000000009</v>
       </c>
-      <c r="F19" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G19" s="2">
+        <f t="shared" si="7"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1313,6 +1308,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1324,12 +1320,12 @@
         <v>6218.0000000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
+      <c r="B20" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1343,10 +1339,12 @@
         <f t="shared" si="1"/>
         <v>6088.5000000000009</v>
       </c>
-      <c r="F20" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G20" s="2">
+        <f t="shared" si="7"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1354,6 +1352,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1365,12 +1364,12 @@
         <v>6178.5000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>21</v>
+      <c r="B21" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1384,10 +1383,12 @@
         <f t="shared" si="1"/>
         <v>6039.0000000000009</v>
       </c>
-      <c r="F21" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G21" s="2">
+        <f t="shared" si="7"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1395,6 +1396,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1406,12 +1408,12 @@
         <v>6139.0000000000009</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>22</v>
+      <c r="B22" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1425,10 +1427,12 @@
         <f t="shared" si="1"/>
         <v>5989.5000000000009</v>
       </c>
-      <c r="F22" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="7"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1436,6 +1440,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1447,12 +1452,12 @@
         <v>6099.5000000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>23</v>
+      <c r="B23" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1466,10 +1471,12 @@
         <f t="shared" si="1"/>
         <v>5940.0000000000009</v>
       </c>
-      <c r="F23" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G23" s="2">
+        <f t="shared" si="7"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1477,6 +1484,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1488,12 +1496,12 @@
         <v>6060.0000000000009</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>24</v>
+      <c r="B24" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1507,10 +1515,12 @@
         <f t="shared" si="1"/>
         <v>5890.5000000000009</v>
       </c>
-      <c r="F24" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" si="7"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1518,6 +1528,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1529,12 +1540,12 @@
         <v>6020.5000000000009</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>25</v>
+      <c r="B25" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1548,10 +1559,12 @@
         <f t="shared" si="1"/>
         <v>5841.0000000000009</v>
       </c>
-      <c r="F25" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="7"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1559,6 +1572,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1570,12 +1584,12 @@
         <v>5981.0000000000009</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>26</v>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1589,10 +1603,12 @@
         <f t="shared" si="1"/>
         <v>5791.5000000000009</v>
       </c>
-      <c r="F26" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="7"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1600,6 +1616,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1611,12 +1628,12 @@
         <v>5941.5000000000009</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>27</v>
+      <c r="B27" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1630,10 +1647,12 @@
         <f t="shared" si="1"/>
         <v>5742.0000000000009</v>
       </c>
-      <c r="F27" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="7"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1641,6 +1660,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1652,12 +1672,12 @@
         <v>5902.0000000000009</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>28</v>
+      <c r="B28" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1671,10 +1691,12 @@
         <f t="shared" si="1"/>
         <v>5692.5000000000009</v>
       </c>
-      <c r="F28" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="7"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1682,6 +1704,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1693,12 +1716,12 @@
         <v>5862.5000000000009</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>29</v>
+      <c r="B29" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1712,10 +1735,12 @@
         <f t="shared" si="1"/>
         <v>5643.0000000000009</v>
       </c>
-      <c r="F29" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="7"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1723,6 +1748,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1734,12 +1760,12 @@
         <v>5823.0000000000009</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>30</v>
+      <c r="B30" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1753,10 +1779,12 @@
         <f t="shared" si="1"/>
         <v>5593.5000000000009</v>
       </c>
-      <c r="F30" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G30" s="2">
+        <f t="shared" si="7"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1764,6 +1792,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1775,12 +1804,12 @@
         <v>5783.5000000000009</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>31</v>
+      <c r="B31" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1794,10 +1823,12 @@
         <f t="shared" si="1"/>
         <v>5544.0000000000009</v>
       </c>
-      <c r="F31" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G31" s="2">
+        <f t="shared" si="7"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1805,6 +1836,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1816,12 +1848,12 @@
         <v>5744.0000000000009</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>32</v>
+      <c r="B32" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1835,10 +1867,12 @@
         <f t="shared" si="1"/>
         <v>5494.5000000000009</v>
       </c>
-      <c r="F32" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="F32" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G32" s="2">
+        <f t="shared" si="7"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1846,6 +1880,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1857,12 +1892,12 @@
         <v>5704.5000000000009</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>33</v>
+      <c r="B33" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1876,10 +1911,12 @@
         <f t="shared" si="1"/>
         <v>5445.0000000000009</v>
       </c>
-      <c r="F33" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="F33" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G33" s="2">
+        <f t="shared" si="7"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1887,6 +1924,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1898,12 +1936,12 @@
         <v>5665.0000000000009</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>34</v>
+      <c r="B34" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -1917,10 +1955,12 @@
         <f t="shared" si="1"/>
         <v>5395.5000000000009</v>
       </c>
-      <c r="F34" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="F34" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G34" s="2">
+        <f t="shared" si="7"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1928,6 +1968,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1939,12 +1980,12 @@
         <v>5625.5000000000009</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>35</v>
+      <c r="B35" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -1952,16 +1993,18 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="0"/>
-        <v>99.000000000000014</v>
+        <v>45</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="1"/>
-        <v>5346.0000000000009</v>
-      </c>
-      <c r="F35" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G35" s="3">
+        <v>2430</v>
+      </c>
+      <c r="F35" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G35" s="2">
+        <f t="shared" si="7"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -1969,6 +2012,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -1977,15 +2021,15 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="4"/>
-        <v>5586.0000000000009</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>36</v>
+      <c r="B36" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -1993,16 +2037,18 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="0"/>
-        <v>99.000000000000014</v>
+        <v>45</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="1"/>
-        <v>5296.5000000000009</v>
-      </c>
-      <c r="F36" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G36" s="3">
+        <v>2407.5</v>
+      </c>
+      <c r="F36" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G36" s="2">
+        <f t="shared" si="7"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2010,6 +2056,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2018,15 +2065,15 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="4"/>
-        <v>5546.5000000000009</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2657.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>37</v>
+      <c r="B37" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2034,16 +2081,18 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="0"/>
-        <v>99.000000000000014</v>
+        <v>45</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="1"/>
-        <v>5247.0000000000009</v>
-      </c>
-      <c r="F37" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G37" s="3">
+        <v>2385</v>
+      </c>
+      <c r="F37" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G37" s="2">
+        <f t="shared" si="7"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2051,6 +2100,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2059,15 +2109,15 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="4"/>
-        <v>5507.0000000000009</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>38</v>
+      <c r="B38" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2075,16 +2125,18 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="0"/>
-        <v>99.000000000000014</v>
+        <v>45</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="1"/>
-        <v>5197.5000000000009</v>
-      </c>
-      <c r="F38" s="3">
-        <v>44813</v>
-      </c>
-      <c r="G38" s="3">
+        <v>2362.5</v>
+      </c>
+      <c r="F38" s="2">
+        <f t="shared" si="6"/>
+        <v>44813</v>
+      </c>
+      <c r="G38" s="2">
+        <f t="shared" si="7"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2092,6 +2144,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">
@@ -2100,47 +2153,47 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="4"/>
-        <v>5467.5000000000009</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="5">
+        <v>2632.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
-        <v>218808.00000000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B41" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="4">
-        <f>AVERAGE(C3:C38)</f>
+        <v>210573.00000000003</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1">
+        <f>SUM(C3:C38)/COUNT(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="4">
+    <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B43" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="4">
-        <f>MAX(E3:E38)</f>
+    <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C43" s="1">
+        <f>MAX(K3:K38)</f>
         <v>6930.0000000000009</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A8AE46F-EF74-4DE2-A609-4AF7AC7CD81C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78B6D3C-E3E3-493F-A5D0-3F9A52894A44}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,7 +587,7 @@
         <v>70</v>
       </c>
       <c r="D3" s="1">
-        <f>IF(A3&lt;33,A$1*1.1,A$1/2)</f>
+        <f>A1*1.1</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E3" s="1">
@@ -601,7 +601,7 @@
         <v>44805</v>
       </c>
       <c r="H3" s="1">
-        <f>IF(G3-F3&lt;0,0,G3-F3)</f>
+        <f>IF(G3&gt;F3,G3-F3,0)</f>
         <v>0</v>
       </c>
       <c r="I3" s="1">
@@ -628,11 +628,11 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D38" si="0">IF(A4&lt;33,A$1*1.1,A$1/2)</f>
+        <f>D3</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E38" si="1">C4*D4</f>
+        <f t="shared" ref="E4:E38" si="0">C4*D4</f>
         <v>6880.5000000000009</v>
       </c>
       <c r="F4" s="2">
@@ -644,7 +644,7 @@
         <v>44806</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H38" si="2">IF(G4-F4&lt;0,0,G4-F4)</f>
+        <f t="shared" ref="H4:H38" si="1">IF(G4&gt;F4,G4-F4,0)</f>
         <v>0</v>
       </c>
       <c r="I4" s="1">
@@ -652,11 +652,11 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="3">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="4">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
         <v>6880.5000000000009</v>
       </c>
     </row>
@@ -668,15 +668,15 @@
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D5:D34" si="5">D4</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6831.0000000000009</v>
       </c>
       <c r="F5" s="2">
@@ -688,7 +688,7 @@
         <v>44807</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="1">
@@ -696,11 +696,11 @@
         <v>10</v>
       </c>
       <c r="J5" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K5" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6831.0000000000009</v>
       </c>
     </row>
@@ -712,15 +712,15 @@
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6781.5000000000009</v>
       </c>
       <c r="F6" s="2">
@@ -732,7 +732,7 @@
         <v>44808</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="1">
@@ -740,11 +740,11 @@
         <v>10</v>
       </c>
       <c r="J6" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6781.5000000000009</v>
       </c>
     </row>
@@ -756,15 +756,15 @@
         <v>19</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6732.0000000000009</v>
       </c>
       <c r="F7" s="2">
@@ -776,7 +776,7 @@
         <v>44809</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="1">
@@ -784,11 +784,11 @@
         <v>10</v>
       </c>
       <c r="J7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6732.0000000000009</v>
       </c>
     </row>
@@ -800,15 +800,15 @@
         <v>20</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6682.5000000000009</v>
       </c>
       <c r="F8" s="2">
@@ -820,7 +820,7 @@
         <v>44810</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="1">
@@ -828,11 +828,11 @@
         <v>10</v>
       </c>
       <c r="J8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6682.5000000000009</v>
       </c>
     </row>
@@ -844,15 +844,15 @@
         <v>21</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6633.0000000000009</v>
       </c>
       <c r="F9" s="2">
@@ -864,7 +864,7 @@
         <v>44811</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="1">
@@ -872,11 +872,11 @@
         <v>10</v>
       </c>
       <c r="J9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6633.0000000000009</v>
       </c>
     </row>
@@ -888,15 +888,15 @@
         <v>22</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6583.5000000000009</v>
       </c>
       <c r="F10" s="2">
@@ -908,7 +908,7 @@
         <v>44812</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="1">
@@ -916,11 +916,11 @@
         <v>10</v>
       </c>
       <c r="J10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6583.5000000000009</v>
       </c>
     </row>
@@ -932,15 +932,15 @@
         <v>23</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6534.0000000000009</v>
       </c>
       <c r="F11" s="2">
@@ -952,7 +952,7 @@
         <v>44813</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="1">
@@ -960,11 +960,11 @@
         <v>10</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6534.0000000000009</v>
       </c>
     </row>
@@ -976,15 +976,15 @@
         <v>24</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6484.5000000000009</v>
       </c>
       <c r="F12" s="2">
@@ -996,7 +996,7 @@
         <v>44814</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I12" s="1">
@@ -1004,11 +1004,11 @@
         <v>10</v>
       </c>
       <c r="J12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="K12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6494.5000000000009</v>
       </c>
     </row>
@@ -1020,15 +1020,15 @@
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6435.0000000000009</v>
       </c>
       <c r="F13" s="2">
@@ -1040,7 +1040,7 @@
         <v>44815</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I13" s="1">
@@ -1048,11 +1048,11 @@
         <v>10</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="K13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6455.0000000000009</v>
       </c>
     </row>
@@ -1064,15 +1064,15 @@
         <v>26</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6385.5000000000009</v>
       </c>
       <c r="F14" s="2">
@@ -1084,7 +1084,7 @@
         <v>44816</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I14" s="1">
@@ -1092,11 +1092,11 @@
         <v>10</v>
       </c>
       <c r="J14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="K14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6415.5000000000009</v>
       </c>
     </row>
@@ -1108,15 +1108,15 @@
         <v>27</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6336.0000000000009</v>
       </c>
       <c r="F15" s="2">
@@ -1128,7 +1128,7 @@
         <v>44817</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I15" s="1">
@@ -1136,11 +1136,11 @@
         <v>10</v>
       </c>
       <c r="J15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6376.0000000000009</v>
       </c>
     </row>
@@ -1152,15 +1152,15 @@
         <v>28</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6286.5000000000009</v>
       </c>
       <c r="F16" s="2">
@@ -1172,7 +1172,7 @@
         <v>44818</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I16" s="1">
@@ -1180,11 +1180,11 @@
         <v>10</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6336.5000000000009</v>
       </c>
     </row>
@@ -1196,15 +1196,15 @@
         <v>29</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6237.0000000000009</v>
       </c>
       <c r="F17" s="2">
@@ -1216,7 +1216,7 @@
         <v>44819</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I17" s="1">
@@ -1224,11 +1224,11 @@
         <v>10</v>
       </c>
       <c r="J17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
       <c r="K17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6297.0000000000009</v>
       </c>
     </row>
@@ -1240,15 +1240,15 @@
         <v>30</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6187.5000000000009</v>
       </c>
       <c r="F18" s="2">
@@ -1260,7 +1260,7 @@
         <v>44820</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="I18" s="1">
@@ -1268,11 +1268,11 @@
         <v>10</v>
       </c>
       <c r="J18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="K18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6257.5000000000009</v>
       </c>
     </row>
@@ -1284,15 +1284,15 @@
         <v>31</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6138.0000000000009</v>
       </c>
       <c r="F19" s="2">
@@ -1304,7 +1304,7 @@
         <v>44821</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I19" s="1">
@@ -1312,11 +1312,11 @@
         <v>10</v>
       </c>
       <c r="J19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>80</v>
       </c>
       <c r="K19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6218.0000000000009</v>
       </c>
     </row>
@@ -1328,15 +1328,15 @@
         <v>32</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6088.5000000000009</v>
       </c>
       <c r="F20" s="2">
@@ -1348,7 +1348,7 @@
         <v>44822</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="I20" s="1">
@@ -1356,11 +1356,11 @@
         <v>10</v>
       </c>
       <c r="J20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>90</v>
       </c>
       <c r="K20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6178.5000000000009</v>
       </c>
     </row>
@@ -1372,15 +1372,15 @@
         <v>33</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6039.0000000000009</v>
       </c>
       <c r="F21" s="2">
@@ -1392,7 +1392,7 @@
         <v>44823</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I21" s="1">
@@ -1400,11 +1400,11 @@
         <v>10</v>
       </c>
       <c r="J21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>100</v>
       </c>
       <c r="K21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6139.0000000000009</v>
       </c>
     </row>
@@ -1416,15 +1416,15 @@
         <v>34</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5989.5000000000009</v>
       </c>
       <c r="F22" s="2">
@@ -1436,7 +1436,7 @@
         <v>44824</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="I22" s="1">
@@ -1444,11 +1444,11 @@
         <v>10</v>
       </c>
       <c r="J22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>110</v>
       </c>
       <c r="K22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6099.5000000000009</v>
       </c>
     </row>
@@ -1460,15 +1460,15 @@
         <v>35</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5940.0000000000009</v>
       </c>
       <c r="F23" s="2">
@@ -1480,7 +1480,7 @@
         <v>44825</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I23" s="1">
@@ -1488,11 +1488,11 @@
         <v>10</v>
       </c>
       <c r="J23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>120</v>
       </c>
       <c r="K23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6060.0000000000009</v>
       </c>
     </row>
@@ -1504,15 +1504,15 @@
         <v>36</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5890.5000000000009</v>
       </c>
       <c r="F24" s="2">
@@ -1524,7 +1524,7 @@
         <v>44826</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="I24" s="1">
@@ -1532,11 +1532,11 @@
         <v>10</v>
       </c>
       <c r="J24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>130</v>
       </c>
       <c r="K24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>6020.5000000000009</v>
       </c>
     </row>
@@ -1548,15 +1548,15 @@
         <v>37</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5841.0000000000009</v>
       </c>
       <c r="F25" s="2">
@@ -1568,7 +1568,7 @@
         <v>44827</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I25" s="1">
@@ -1576,11 +1576,11 @@
         <v>10</v>
       </c>
       <c r="J25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>140</v>
       </c>
       <c r="K25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5981.0000000000009</v>
       </c>
     </row>
@@ -1592,15 +1592,15 @@
         <v>38</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5791.5000000000009</v>
       </c>
       <c r="F26" s="2">
@@ -1612,7 +1612,7 @@
         <v>44828</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="I26" s="1">
@@ -1620,11 +1620,11 @@
         <v>10</v>
       </c>
       <c r="J26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>150</v>
       </c>
       <c r="K26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5941.5000000000009</v>
       </c>
     </row>
@@ -1636,15 +1636,15 @@
         <v>39</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5742.0000000000009</v>
       </c>
       <c r="F27" s="2">
@@ -1656,7 +1656,7 @@
         <v>44829</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="I27" s="1">
@@ -1664,11 +1664,11 @@
         <v>10</v>
       </c>
       <c r="J27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>160</v>
       </c>
       <c r="K27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5902.0000000000009</v>
       </c>
     </row>
@@ -1680,15 +1680,15 @@
         <v>40</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5692.5000000000009</v>
       </c>
       <c r="F28" s="2">
@@ -1700,7 +1700,7 @@
         <v>44830</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="I28" s="1">
@@ -1708,11 +1708,11 @@
         <v>10</v>
       </c>
       <c r="J28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>170</v>
       </c>
       <c r="K28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5862.5000000000009</v>
       </c>
     </row>
@@ -1724,15 +1724,15 @@
         <v>41</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5643.0000000000009</v>
       </c>
       <c r="F29" s="2">
@@ -1744,7 +1744,7 @@
         <v>44831</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="I29" s="1">
@@ -1752,11 +1752,11 @@
         <v>10</v>
       </c>
       <c r="J29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="K29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5823.0000000000009</v>
       </c>
     </row>
@@ -1768,15 +1768,15 @@
         <v>42</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5593.5000000000009</v>
       </c>
       <c r="F30" s="2">
@@ -1788,7 +1788,7 @@
         <v>44832</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="I30" s="1">
@@ -1796,11 +1796,11 @@
         <v>10</v>
       </c>
       <c r="J30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>190</v>
       </c>
       <c r="K30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5783.5000000000009</v>
       </c>
     </row>
@@ -1812,15 +1812,15 @@
         <v>43</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5544.0000000000009</v>
       </c>
       <c r="F31" s="2">
@@ -1832,7 +1832,7 @@
         <v>44833</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="I31" s="1">
@@ -1840,11 +1840,11 @@
         <v>10</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>200</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5744.0000000000009</v>
       </c>
     </row>
@@ -1856,15 +1856,15 @@
         <v>44</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5494.5000000000009</v>
       </c>
       <c r="F32" s="2">
@@ -1876,7 +1876,7 @@
         <v>44834</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="I32" s="1">
@@ -1884,11 +1884,11 @@
         <v>10</v>
       </c>
       <c r="J32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>210</v>
       </c>
       <c r="K32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5704.5000000000009</v>
       </c>
     </row>
@@ -1900,15 +1900,15 @@
         <v>45</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5445.0000000000009</v>
       </c>
       <c r="F33" s="2">
@@ -1920,7 +1920,7 @@
         <v>44835</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="I33" s="1">
@@ -1928,11 +1928,11 @@
         <v>10</v>
       </c>
       <c r="J33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>220</v>
       </c>
       <c r="K33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5665.0000000000009</v>
       </c>
     </row>
@@ -1944,15 +1944,15 @@
         <v>46</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5395.5000000000009</v>
       </c>
       <c r="F34" s="2">
@@ -1964,7 +1964,7 @@
         <v>44836</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="I34" s="1">
@@ -1972,11 +1972,11 @@
         <v>10</v>
       </c>
       <c r="J34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>230</v>
       </c>
       <c r="K34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5625.5000000000009</v>
       </c>
     </row>
@@ -1988,16 +1988,16 @@
         <v>47</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f>$D$3/3</f>
+        <v>33.000000000000007</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>2430</v>
+        <f t="shared" si="0"/>
+        <v>1782.0000000000005</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="6"/>
@@ -2008,7 +2008,7 @@
         <v>44837</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="I35" s="1">
@@ -2016,12 +2016,12 @@
         <v>10</v>
       </c>
       <c r="J35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>240</v>
       </c>
       <c r="K35" s="1">
-        <f t="shared" si="4"/>
-        <v>2670</v>
+        <f t="shared" si="3"/>
+        <v>2022.0000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2032,16 +2032,16 @@
         <v>48</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f t="shared" ref="D36:D38" si="9">$D$3/3</f>
+        <v>33.000000000000007</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>2407.5</v>
+        <f t="shared" si="0"/>
+        <v>1765.5000000000005</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="6"/>
@@ -2052,7 +2052,7 @@
         <v>44838</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="I36" s="1">
@@ -2060,12 +2060,12 @@
         <v>10</v>
       </c>
       <c r="J36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>250</v>
       </c>
       <c r="K36" s="1">
-        <f t="shared" si="4"/>
-        <v>2657.5</v>
+        <f t="shared" si="3"/>
+        <v>2015.5000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2076,16 +2076,16 @@
         <v>49</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f t="shared" si="9"/>
+        <v>33.000000000000007</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>2385</v>
+        <f t="shared" si="0"/>
+        <v>1749.0000000000005</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="6"/>
@@ -2096,7 +2096,7 @@
         <v>44839</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="I37" s="1">
@@ -2104,12 +2104,12 @@
         <v>10</v>
       </c>
       <c r="J37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>260</v>
       </c>
       <c r="K37" s="1">
-        <f t="shared" si="4"/>
-        <v>2645</v>
+        <f t="shared" si="3"/>
+        <v>2009.0000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2120,16 +2120,16 @@
         <v>50</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>45</v>
+        <f t="shared" si="9"/>
+        <v>33.000000000000007</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>2362.5</v>
+        <f t="shared" si="0"/>
+        <v>1732.5000000000005</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="6"/>
@@ -2140,7 +2140,7 @@
         <v>44840</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="I38" s="1">
@@ -2148,12 +2148,12 @@
         <v>10</v>
       </c>
       <c r="J38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>270</v>
       </c>
       <c r="K38" s="1">
-        <f t="shared" si="4"/>
-        <v>2632.5</v>
+        <f t="shared" si="3"/>
+        <v>2002.5000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
-        <v>210573.00000000003</v>
+        <v>208017.00000000003</v>
       </c>
       <c r="D40" s="1"/>
     </row>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B78B6D3C-E3E3-493F-A5D0-3F9A52894A44}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D900B7B-8E93-41D5-A03F-B57757DB70CE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,12 +1992,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/3</f>
-        <v>33.000000000000007</v>
+        <f>$D$3/2</f>
+        <v>49.500000000000007</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>1782.0000000000005</v>
+        <v>2673.0000000000005</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="6"/>
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>2022.0000000000005</v>
+        <v>2913.0000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2036,12 +2036,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="9">$D$3/3</f>
-        <v>33.000000000000007</v>
+        <f t="shared" ref="D36:D38" si="9">$D$3/2</f>
+        <v>49.500000000000007</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>1765.5000000000005</v>
+        <v>2648.2500000000005</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="6"/>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>2015.5000000000005</v>
+        <v>2898.2500000000005</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2081,11 +2081,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="9"/>
-        <v>33.000000000000007</v>
+        <v>49.500000000000007</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>1749.0000000000005</v>
+        <v>2623.5000000000005</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="6"/>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>2009.0000000000005</v>
+        <v>2883.5000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2125,11 +2125,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="9"/>
-        <v>33.000000000000007</v>
+        <v>49.500000000000007</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>1732.5000000000005</v>
+        <v>2598.7500000000005</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="6"/>
@@ -2153,7 +2153,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>2002.5000000000005</v>
+        <v>2868.7500000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
-        <v>208017.00000000003</v>
+        <v>211531.50000000003</v>
       </c>
       <c r="D40" s="1"/>
     </row>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D900B7B-8E93-41D5-A03F-B57757DB70CE}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30F72F7-D3B4-4DFC-AF17-4EC6ACD2F453}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,6 +618,7 @@
     </row>
     <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
+        <f>A3+1</f>
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -662,17 +663,18 @@
     </row>
     <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
+        <f t="shared" ref="A5:A38" si="4">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
+        <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="5">D4</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E5" s="1">
@@ -680,11 +682,11 @@
         <v>6831.0000000000009</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" ref="F5:F38" si="6">F4</f>
+        <f t="shared" ref="F5:F38" si="7">F4</f>
         <v>44813</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" ref="G5:G38" si="7">G4+1</f>
+        <f t="shared" ref="G5:G38" si="8">G4+1</f>
         <v>44807</v>
       </c>
       <c r="H5" s="1">
@@ -692,7 +694,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <f t="shared" ref="I5:I38" si="8">I4</f>
+        <f t="shared" ref="I5:I38" si="9">I4</f>
         <v>10</v>
       </c>
       <c r="J5" s="1">
@@ -706,17 +708,18 @@
     </row>
     <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68.5</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E6" s="1">
@@ -724,11 +727,11 @@
         <v>6781.5000000000009</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44808</v>
       </c>
       <c r="H6" s="1">
@@ -736,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J6" s="1">
@@ -750,17 +753,18 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>68</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E7" s="1">
@@ -768,11 +772,11 @@
         <v>6732.0000000000009</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44809</v>
       </c>
       <c r="H7" s="1">
@@ -780,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J7" s="1">
@@ -794,17 +798,18 @@
     </row>
     <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67.5</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E8" s="1">
@@ -812,11 +817,11 @@
         <v>6682.5000000000009</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44810</v>
       </c>
       <c r="H8" s="1">
@@ -824,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J8" s="1">
@@ -838,17 +843,18 @@
     </row>
     <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>67</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E9" s="1">
@@ -856,11 +862,11 @@
         <v>6633.0000000000009</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44811</v>
       </c>
       <c r="H9" s="1">
@@ -868,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J9" s="1">
@@ -882,17 +888,18 @@
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66.5</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E10" s="1">
@@ -900,11 +907,11 @@
         <v>6583.5000000000009</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44812</v>
       </c>
       <c r="H10" s="1">
@@ -912,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J10" s="1">
@@ -926,17 +933,18 @@
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E11" s="1">
@@ -944,11 +952,11 @@
         <v>6534.0000000000009</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44813</v>
       </c>
       <c r="H11" s="1">
@@ -956,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J11" s="1">
@@ -970,17 +978,18 @@
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65.5</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E12" s="1">
@@ -988,11 +997,11 @@
         <v>6484.5000000000009</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44814</v>
       </c>
       <c r="H12" s="1">
@@ -1000,7 +1009,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J12" s="1">
@@ -1014,17 +1023,18 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>65</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E13" s="1">
@@ -1032,11 +1042,11 @@
         <v>6435.0000000000009</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44815</v>
       </c>
       <c r="H13" s="1">
@@ -1044,7 +1054,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J13" s="1">
@@ -1058,17 +1068,18 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64.5</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E14" s="1">
@@ -1076,11 +1087,11 @@
         <v>6385.5000000000009</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44816</v>
       </c>
       <c r="H14" s="1">
@@ -1088,7 +1099,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J14" s="1">
@@ -1102,17 +1113,18 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>64</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E15" s="1">
@@ -1120,11 +1132,11 @@
         <v>6336.0000000000009</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G15" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44817</v>
       </c>
       <c r="H15" s="1">
@@ -1132,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J15" s="1">
@@ -1146,17 +1158,18 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>28</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63.5</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E16" s="1">
@@ -1164,11 +1177,11 @@
         <v>6286.5000000000009</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G16" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44818</v>
       </c>
       <c r="H16" s="1">
@@ -1176,7 +1189,7 @@
         <v>5</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J16" s="1">
@@ -1190,17 +1203,18 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E17" s="1">
@@ -1208,11 +1222,11 @@
         <v>6237.0000000000009</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G17" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44819</v>
       </c>
       <c r="H17" s="1">
@@ -1220,7 +1234,7 @@
         <v>6</v>
       </c>
       <c r="I17" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J17" s="1">
@@ -1234,17 +1248,18 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>30</v>
       </c>
       <c r="C18" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62.5</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E18" s="1">
@@ -1252,11 +1267,11 @@
         <v>6187.5000000000009</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44820</v>
       </c>
       <c r="H18" s="1">
@@ -1264,7 +1279,7 @@
         <v>7</v>
       </c>
       <c r="I18" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J18" s="1">
@@ -1278,17 +1293,18 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>31</v>
       </c>
       <c r="C19" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>62</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E19" s="1">
@@ -1296,11 +1312,11 @@
         <v>6138.0000000000009</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G19" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44821</v>
       </c>
       <c r="H19" s="1">
@@ -1308,7 +1324,7 @@
         <v>8</v>
       </c>
       <c r="I19" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J19" s="1">
@@ -1322,17 +1338,18 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>32</v>
       </c>
       <c r="C20" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61.5</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E20" s="1">
@@ -1340,11 +1357,11 @@
         <v>6088.5000000000009</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G20" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44822</v>
       </c>
       <c r="H20" s="1">
@@ -1352,7 +1369,7 @@
         <v>9</v>
       </c>
       <c r="I20" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J20" s="1">
@@ -1366,17 +1383,18 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>61</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E21" s="1">
@@ -1384,11 +1402,11 @@
         <v>6039.0000000000009</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44823</v>
       </c>
       <c r="H21" s="1">
@@ -1396,7 +1414,7 @@
         <v>10</v>
       </c>
       <c r="I21" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J21" s="1">
@@ -1410,17 +1428,18 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60.5</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E22" s="1">
@@ -1428,11 +1447,11 @@
         <v>5989.5000000000009</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44824</v>
       </c>
       <c r="H22" s="1">
@@ -1440,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="I22" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J22" s="1">
@@ -1454,17 +1473,18 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>60</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E23" s="1">
@@ -1472,11 +1492,11 @@
         <v>5940.0000000000009</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44825</v>
       </c>
       <c r="H23" s="1">
@@ -1484,7 +1504,7 @@
         <v>12</v>
       </c>
       <c r="I23" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J23" s="1">
@@ -1498,17 +1518,18 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C24" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59.5</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E24" s="1">
@@ -1516,11 +1537,11 @@
         <v>5890.5000000000009</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44826</v>
       </c>
       <c r="H24" s="1">
@@ -1528,7 +1549,7 @@
         <v>13</v>
       </c>
       <c r="I24" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J24" s="1">
@@ -1542,17 +1563,18 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E25" s="1">
@@ -1560,11 +1582,11 @@
         <v>5841.0000000000009</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44827</v>
       </c>
       <c r="H25" s="1">
@@ -1572,7 +1594,7 @@
         <v>14</v>
       </c>
       <c r="I25" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J25" s="1">
@@ -1586,17 +1608,18 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58.5</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E26" s="1">
@@ -1604,11 +1627,11 @@
         <v>5791.5000000000009</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44828</v>
       </c>
       <c r="H26" s="1">
@@ -1616,7 +1639,7 @@
         <v>15</v>
       </c>
       <c r="I26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J26" s="1">
@@ -1630,17 +1653,18 @@
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C27" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>58</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E27" s="1">
@@ -1648,11 +1672,11 @@
         <v>5742.0000000000009</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G27" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44829</v>
       </c>
       <c r="H27" s="1">
@@ -1660,7 +1684,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J27" s="1">
@@ -1674,17 +1698,18 @@
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>40</v>
       </c>
       <c r="C28" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57.5</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E28" s="1">
@@ -1692,11 +1717,11 @@
         <v>5692.5000000000009</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G28" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44830</v>
       </c>
       <c r="H28" s="1">
@@ -1704,7 +1729,7 @@
         <v>17</v>
       </c>
       <c r="I28" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J28" s="1">
@@ -1718,17 +1743,18 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C29" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E29" s="1">
@@ -1736,11 +1762,11 @@
         <v>5643.0000000000009</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G29" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44831</v>
       </c>
       <c r="H29" s="1">
@@ -1748,7 +1774,7 @@
         <v>18</v>
       </c>
       <c r="I29" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J29" s="1">
@@ -1762,17 +1788,18 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>42</v>
       </c>
       <c r="C30" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56.5</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E30" s="1">
@@ -1780,11 +1807,11 @@
         <v>5593.5000000000009</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G30" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44832</v>
       </c>
       <c r="H30" s="1">
@@ -1792,7 +1819,7 @@
         <v>19</v>
       </c>
       <c r="I30" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J30" s="1">
@@ -1806,17 +1833,18 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>43</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>56</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E31" s="1">
@@ -1824,11 +1852,11 @@
         <v>5544.0000000000009</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G31" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44833</v>
       </c>
       <c r="H31" s="1">
@@ -1836,7 +1864,7 @@
         <v>20</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J31" s="1">
@@ -1850,17 +1878,18 @@
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>44</v>
       </c>
       <c r="C32" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55.5</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E32" s="1">
@@ -1868,11 +1897,11 @@
         <v>5494.5000000000009</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G32" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44834</v>
       </c>
       <c r="H32" s="1">
@@ -1880,7 +1909,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J32" s="1">
@@ -1894,17 +1923,18 @@
     </row>
     <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>45</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>55</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E33" s="1">
@@ -1912,11 +1942,11 @@
         <v>5445.0000000000009</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G33" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44835</v>
       </c>
       <c r="H33" s="1">
@@ -1924,7 +1954,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J33" s="1">
@@ -1938,17 +1968,18 @@
     </row>
     <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C34" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54.5</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E34" s="1">
@@ -1956,11 +1987,11 @@
         <v>5395.5000000000009</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G34" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44836</v>
       </c>
       <c r="H34" s="1">
@@ -1968,7 +1999,7 @@
         <v>23</v>
       </c>
       <c r="I34" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J34" s="1">
@@ -1982,13 +2013,14 @@
     </row>
     <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>47</v>
       </c>
       <c r="C35" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
@@ -2000,11 +2032,11 @@
         <v>2673.0000000000005</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G35" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44837</v>
       </c>
       <c r="H35" s="1">
@@ -2012,7 +2044,7 @@
         <v>24</v>
       </c>
       <c r="I35" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J35" s="1">
@@ -2026,17 +2058,18 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>48</v>
       </c>
       <c r="C36" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="9">$D$3/2</f>
+        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
         <v>49.500000000000007</v>
       </c>
       <c r="E36" s="1">
@@ -2044,11 +2077,11 @@
         <v>2648.2500000000005</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G36" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44838</v>
       </c>
       <c r="H36" s="1">
@@ -2056,7 +2089,7 @@
         <v>25</v>
       </c>
       <c r="I36" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J36" s="1">
@@ -2070,17 +2103,18 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>49</v>
       </c>
       <c r="C37" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.500000000000007</v>
       </c>
       <c r="E37" s="1">
@@ -2088,11 +2122,11 @@
         <v>2623.5000000000005</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44839</v>
       </c>
       <c r="H37" s="1">
@@ -2100,7 +2134,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J37" s="1">
@@ -2114,17 +2148,18 @@
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>50</v>
       </c>
       <c r="C38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>49.500000000000007</v>
       </c>
       <c r="E38" s="1">
@@ -2132,11 +2167,11 @@
         <v>2598.7500000000005</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>44813</v>
       </c>
       <c r="G38" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>44840</v>
       </c>
       <c r="H38" s="1">
@@ -2144,7 +2179,7 @@
         <v>27</v>
       </c>
       <c r="I38" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="J38" s="1">

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30F72F7-D3B4-4DFC-AF17-4EC6ACD2F453}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E335CBA7-04FD-4ED4-9CEB-49DB71E2CFAC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D35" sqref="D35:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,12 +2024,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/2</f>
-        <v>49.500000000000007</v>
+        <f>$D$3/3</f>
+        <v>33.000000000000007</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>2673.0000000000005</v>
+        <v>1782.0000000000005</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="7"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>2913.0000000000005</v>
+        <v>2022.0000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2069,12 +2069,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
-        <v>49.500000000000007</v>
+        <f t="shared" ref="D36:D38" si="10">$D$3/3</f>
+        <v>33.000000000000007</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>2648.2500000000005</v>
+        <v>1765.5000000000005</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="7"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>2898.2500000000005</v>
+        <v>2015.5000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="10"/>
-        <v>49.500000000000007</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>2623.5000000000005</v>
+        <v>1749.0000000000005</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="7"/>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>2883.5000000000005</v>
+        <v>2009.0000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2160,11 +2160,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="10"/>
-        <v>49.500000000000007</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>2598.7500000000005</v>
+        <v>1732.5000000000005</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="7"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>2868.7500000000005</v>
+        <v>2002.5000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
-        <v>211531.50000000003</v>
+        <v>208017.00000000003</v>
       </c>
       <c r="D40" s="1"/>
     </row>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E335CBA7-04FD-4ED4-9CEB-49DB71E2CFAC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA87A8C6-C6CA-4ABB-BC1B-744510737126}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:D38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>D3</f>
+        <f>$D$3</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E4" s="1">
@@ -674,7 +674,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="6">D4</f>
+        <f t="shared" ref="D5:D34" si="6">$D$3</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E5" s="1">
@@ -944,12 +944,12 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="6"/>
-        <v>99.000000000000014</v>
+        <f>$D$3/2</f>
+        <v>49.500000000000007</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="0"/>
-        <v>6534.0000000000009</v>
+        <v>3267.0000000000005</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" si="7"/>
@@ -973,7 +973,7 @@
       </c>
       <c r="K11" s="1">
         <f t="shared" si="3"/>
-        <v>6534.0000000000009</v>
+        <v>3267.0000000000005</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2024,12 +2024,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/3</f>
-        <v>33.000000000000007</v>
+        <f>$D$3/2</f>
+        <v>49.500000000000007</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>1782.0000000000005</v>
+        <v>2673.0000000000005</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="7"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>2022.0000000000005</v>
+        <v>2913.0000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2069,12 +2069,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$D$3/3</f>
-        <v>33.000000000000007</v>
+        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
+        <v>49.500000000000007</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>1765.5000000000005</v>
+        <v>2648.2500000000005</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="7"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>2015.5000000000005</v>
+        <v>2898.2500000000005</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="10"/>
-        <v>33.000000000000007</v>
+        <v>49.500000000000007</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>1749.0000000000005</v>
+        <v>2623.5000000000005</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="7"/>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>2009.0000000000005</v>
+        <v>2883.5000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2160,11 +2160,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="10"/>
-        <v>33.000000000000007</v>
+        <v>49.500000000000007</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>1732.5000000000005</v>
+        <v>2598.7500000000005</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="7"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>2002.5000000000005</v>
+        <v>2868.7500000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
-        <v>208017.00000000003</v>
+        <v>208264.50000000003</v>
       </c>
       <c r="D40" s="1"/>
     </row>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA87A8C6-C6CA-4ABB-BC1B-744510737126}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7680E948-CB3D-490E-AA26-7FD93C80AF11}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,12 +2024,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/2</f>
-        <v>49.500000000000007</v>
+        <f>$D$3/3</f>
+        <v>33.000000000000007</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>2673.0000000000005</v>
+        <v>1782.0000000000005</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="7"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>2913.0000000000005</v>
+        <v>2022.0000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2069,12 +2069,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
-        <v>49.500000000000007</v>
+        <f t="shared" ref="D36:D38" si="10">$D$3/3</f>
+        <v>33.000000000000007</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>2648.2500000000005</v>
+        <v>1765.5000000000005</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="7"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>2898.2500000000005</v>
+        <v>2015.5000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="10"/>
-        <v>49.500000000000007</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>2623.5000000000005</v>
+        <v>1749.0000000000005</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="7"/>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>2883.5000000000005</v>
+        <v>2009.0000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2160,11 +2160,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="10"/>
-        <v>49.500000000000007</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>2598.7500000000005</v>
+        <v>1732.5000000000005</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="7"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>2868.7500000000005</v>
+        <v>2002.5000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C40" s="3">
         <f>SUM(K3:K38)</f>
-        <v>208264.50000000003</v>
+        <v>204750.00000000003</v>
       </c>
       <c r="D40" s="1"/>
     </row>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35DFF874-F14B-4CD3-A8FA-DF7FB77119E6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D177837F-5618-49B9-9FC3-2794597A43A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2196,8 +2196,8 @@
         <v>11</v>
       </c>
       <c r="C40" s="3">
-        <f>SUM(K3:K38)</f>
-        <v>211531.50000000003</v>
+        <f>FLOOR(SUM(K3:K38),0.1)</f>
+        <v>211531.5</v>
       </c>
       <c r="D40" s="1"/>
     </row>
@@ -2206,7 +2206,7 @@
         <v>12</v>
       </c>
       <c r="C41" s="1">
-        <f>SUM(C3:C38)/COUNT(C3:C38)</f>
+        <f>AVERAGE(C3:C38)</f>
         <v>61.25</v>
       </c>
     </row>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D177837F-5618-49B9-9FC3-2794597A43A6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B92CCE-A5D4-44CC-BE08-E3593243F357}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -66,9 +66,6 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальный срок просрчоки, дней</t>
-  </si>
-  <si>
     <t>Максимальная сумма к оплате, руб.</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Курочкин</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -847,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -892,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -937,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1027,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1117,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1207,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1252,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1297,7 +1297,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1342,7 +1342,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1387,7 +1387,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1432,7 +1432,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1477,7 +1477,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1522,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1567,7 +1567,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1612,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1657,7 +1657,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1702,7 +1702,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1747,7 +1747,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1792,7 +1792,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1837,7 +1837,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1882,7 +1882,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1927,7 +1927,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1972,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2017,7 +2017,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2062,7 +2062,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2107,7 +2107,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2152,7 +2152,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B92CCE-A5D4-44CC-BE08-E3593243F357}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6F7710-1750-4CA7-B2EE-A918B47AB0FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,9 +30,6 @@
     <t>№ квартиры</t>
   </si>
   <si>
-    <t>Фамилия квартиросъемщика</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Итого, руб.</t>
   </si>
   <si>
-    <t>Пенни за 1 день, руб.</t>
-  </si>
-  <si>
     <t>Просрочка, дней</t>
   </si>
   <si>
@@ -178,6 +172,12 @@
   </si>
   <si>
     <t>Максимальный срок просрочки, дней</t>
+  </si>
+  <si>
+    <t>Фамилия квартиросъёмщика</t>
+  </si>
+  <si>
+    <t>Пени за 1 день, руб.</t>
   </si>
 </sst>
 </file>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,34 +546,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -847,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -892,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -937,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1027,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1117,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1207,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1252,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1297,7 +1297,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1342,7 +1342,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1387,7 +1387,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1432,7 +1432,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1477,7 +1477,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1522,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1567,7 +1567,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1612,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1657,7 +1657,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1702,7 +1702,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1747,7 +1747,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1792,7 +1792,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1837,7 +1837,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1882,7 +1882,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1927,7 +1927,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1972,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2017,7 +2017,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2062,7 +2062,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2107,7 +2107,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2152,7 +2152,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C40" s="3">
         <f>FLOOR(SUM(K3:K38),0.1)</f>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6F7710-1750-4CA7-B2EE-A918B47AB0FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC60F99-8F6E-4E19-9B9F-12BC5028F3C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -132,9 +132,6 @@
     <t>Сеняшина</t>
   </si>
   <si>
-    <t>Соловьева</t>
-  </si>
-  <si>
     <t>Табаков</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Пени за 1 день, руб.</t>
+  </si>
+  <si>
+    <t>Соловьёва</t>
   </si>
 </sst>
 </file>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +546,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -567,7 +567,7 @@
         <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>5</v>
@@ -1612,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1657,7 +1657,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1702,7 +1702,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1747,7 +1747,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1792,7 +1792,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1837,7 +1837,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1882,7 +1882,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1927,7 +1927,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1972,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2017,7 +2017,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2062,7 +2062,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2107,7 +2107,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2152,7 +2152,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC60F99-8F6E-4E19-9B9F-12BC5028F3C7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9917B5-1820-4F3E-86D4-71BA5404539F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
-    <t>№ квартиры</t>
-  </si>
-  <si>
     <t>Площадь, кв.м.</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t>Аллаярова</t>
   </si>
   <si>
-    <t>Курочкин</t>
-  </si>
-  <si>
     <t>Максимальный срок просрочки, дней</t>
   </si>
   <si>
@@ -178,6 +172,12 @@
   </si>
   <si>
     <t>Соловьёва</t>
+  </si>
+  <si>
+    <t>Курочкин213213123</t>
+  </si>
+  <si>
+    <t># квартиры</t>
   </si>
 </sst>
 </file>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,37 +543,37 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -847,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -892,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -937,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1027,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1117,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1207,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1252,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1297,7 +1297,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1342,7 +1342,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1387,7 +1387,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1432,7 +1432,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1477,7 +1477,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1522,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1567,7 +1567,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1612,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1657,7 +1657,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1702,7 +1702,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1747,7 +1747,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1792,7 +1792,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1837,7 +1837,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1882,7 +1882,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1927,7 +1927,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1972,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2017,7 +2017,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2062,7 +2062,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2107,7 +2107,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2152,7 +2152,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" s="3">
         <f>FLOOR(SUM(K3:K38),0.1)</f>
@@ -2203,7 +2203,7 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9917B5-1820-4F3E-86D4-71BA5404539F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F21DF6A-1A4C-4A57-8C7B-828BF4C0FB41}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Средняя площадь, кв.м.</t>
   </si>
   <si>
-    <t>Максимальная сумма к оплате, руб.</t>
-  </si>
-  <si>
     <t>Аллаяров</t>
   </si>
   <si>
@@ -174,10 +171,13 @@
     <t>Соловьёва</t>
   </si>
   <si>
-    <t>Курочкин213213123</t>
-  </si>
-  <si>
-    <t># квартиры</t>
+    <t>№ квартиры</t>
+  </si>
+  <si>
+    <t>Курочкин</t>
+  </si>
+  <si>
+    <t>Максимальная сумма, руб.</t>
   </si>
 </sst>
 </file>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,10 +543,10 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>4</v>
@@ -581,7 +581,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="5">C4-0.5</f>
@@ -712,7 +712,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="5"/>
@@ -757,7 +757,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="5"/>
@@ -802,7 +802,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="5"/>
@@ -847,7 +847,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="5"/>
@@ -892,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="5"/>
@@ -937,7 +937,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="5"/>
@@ -982,7 +982,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="5"/>
@@ -1027,7 +1027,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="5"/>
@@ -1072,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="5"/>
@@ -1117,7 +1117,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="5"/>
@@ -1162,7 +1162,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="5"/>
@@ -1207,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="5"/>
@@ -1252,7 +1252,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="5"/>
@@ -1297,7 +1297,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="5"/>
@@ -1342,7 +1342,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="5"/>
@@ -1387,7 +1387,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="5"/>
@@ -1432,7 +1432,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="5"/>
@@ -1477,7 +1477,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="5"/>
@@ -1522,7 +1522,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="5"/>
@@ -1567,7 +1567,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="5"/>
@@ -1612,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1657,7 +1657,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="5"/>
@@ -1702,7 +1702,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="5"/>
@@ -1747,7 +1747,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="5"/>
@@ -1792,7 +1792,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="5"/>
@@ -1837,7 +1837,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="5"/>
@@ -1882,7 +1882,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="5"/>
@@ -1927,7 +1927,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1972,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2017,7 +2017,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
@@ -2062,7 +2062,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
@@ -2107,7 +2107,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F21DF6A-1A4C-4A57-8C7B-828BF4C0FB41}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C2299B-6941-483D-AE58-C781D0306599}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,9 +144,6 @@
     <t>Хамидуллин</t>
   </si>
   <si>
-    <t>Черемухин</t>
-  </si>
-  <si>
     <t>Шайхутдинов</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>Максимальная сумма, руб.</t>
+  </si>
+  <si>
+    <t>Черёмухин</t>
   </si>
 </sst>
 </file>
@@ -516,8 +516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -543,10 +543,10 @@
     </row>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
@@ -567,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>4</v>
@@ -629,7 +629,7 @@
         <v>69.5</v>
       </c>
       <c r="D4" s="1">
-        <f>$D$3</f>
+        <f>D3</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E4" s="1">
@@ -674,7 +674,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D34" si="6">$D$3</f>
+        <f t="shared" ref="D5:D38" si="6">D4</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E5" s="1">
@@ -944,7 +944,7 @@
         <v>66</v>
       </c>
       <c r="D11" s="1">
-        <f>$D$3</f>
+        <f t="shared" si="6"/>
         <v>99.000000000000014</v>
       </c>
       <c r="E11" s="1">
@@ -1612,7 +1612,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="5"/>
@@ -1927,7 +1927,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="5"/>
@@ -1972,7 +1972,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="5"/>
@@ -2017,14 +2017,14 @@
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="5"/>
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>$D$3/2</f>
+        <f>D34/2</f>
         <v>49.500000000000007</v>
       </c>
       <c r="E35" s="1">
@@ -2062,14 +2062,14 @@
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="5"/>
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" ref="D36:D38" si="10">$D$3/2</f>
+        <f t="shared" si="6"/>
         <v>49.500000000000007</v>
       </c>
       <c r="E36" s="1">
@@ -2107,14 +2107,14 @@
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="5"/>
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>49.500000000000007</v>
       </c>
       <c r="E37" s="1">
@@ -2152,14 +2152,14 @@
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="5"/>
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="6"/>
         <v>49.500000000000007</v>
       </c>
       <c r="E38" s="1">
@@ -2212,7 +2212,7 @@
     </row>
     <row r="42" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2221,7 +2221,7 @@
     </row>
     <row r="43" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B43" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C2299B-6941-483D-AE58-C781D0306599}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672316AF-145D-423D-B3E5-0BCEAF710CE7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -517,7 +517,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+      <selection activeCell="D36" sqref="D35:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,12 +2024,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D34/2</f>
-        <v>49.500000000000007</v>
+        <f>D34/3</f>
+        <v>33.000000000000007</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>2673.0000000000005</v>
+        <v>1782.0000000000005</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="7"/>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>2913.0000000000005</v>
+        <v>2022.0000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2070,11 +2070,11 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="6"/>
-        <v>49.500000000000007</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>2648.2500000000005</v>
+        <v>1765.5000000000005</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="7"/>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>2898.2500000000005</v>
+        <v>2015.5000000000005</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2115,11 +2115,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="6"/>
-        <v>49.500000000000007</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>2623.5000000000005</v>
+        <v>1749.0000000000005</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="7"/>
@@ -2143,7 +2143,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>2883.5000000000005</v>
+        <v>2009.0000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2160,11 +2160,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="6"/>
-        <v>49.500000000000007</v>
+        <v>33.000000000000007</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>2598.7500000000005</v>
+        <v>1732.5000000000005</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="7"/>
@@ -2188,7 +2188,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>2868.7500000000005</v>
+        <v>2002.5000000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C40" s="3">
         <f>FLOOR(SUM(K3:K38),0.1)</f>
-        <v>211531.5</v>
+        <v>208017</v>
       </c>
       <c r="D40" s="1"/>
     </row>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{672316AF-145D-423D-B3E5-0BCEAF710CE7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A04EA5-CA83-4D84-A2AB-C299B13C9E50}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -184,7 +184,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +193,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -220,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -233,6 +241,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -517,7 +528,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D35:D38"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -566,7 +577,7 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
@@ -2024,7 +2035,7 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D34/3</f>
+        <f>D3/3</f>
         <v>33.000000000000007</v>
       </c>
       <c r="E35" s="1">
@@ -2069,7 +2080,7 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="6"/>
+        <f>D3/3</f>
         <v>33.000000000000007</v>
       </c>
       <c r="E36" s="1">
@@ -2114,7 +2125,7 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="6"/>
+        <f>D3/3</f>
         <v>33.000000000000007</v>
       </c>
       <c r="E37" s="1">
@@ -2159,7 +2170,7 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="6"/>
+        <f>D3/3</f>
         <v>33.000000000000007</v>
       </c>
       <c r="E38" s="1">

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A04EA5-CA83-4D84-A2AB-C299B13C9E50}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067AAB26-5464-47B1-8146-C418E7D812D8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -619,7 +619,7 @@
         <v>10</v>
       </c>
       <c r="J3" s="1">
-        <f>I3*H3</f>
+        <f>H3*I3</f>
         <v>0</v>
       </c>
       <c r="K3" s="1">
@@ -664,7 +664,7 @@
         <v>10</v>
       </c>
       <c r="J4" s="1">
-        <f t="shared" ref="J4:J38" si="2">I4*H4</f>
+        <f t="shared" ref="J4:J38" si="2">H4*I4</f>
         <v>0</v>
       </c>
       <c r="K4" s="1">
@@ -685,7 +685,7 @@
         <v>69</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" ref="D5:D38" si="6">D4</f>
+        <f t="shared" ref="D5:D34" si="6">D4</f>
         <v>99.000000000000014</v>
       </c>
       <c r="E5" s="1">
@@ -2035,12 +2035,12 @@
         <v>54</v>
       </c>
       <c r="D35" s="1">
-        <f>D3/3</f>
-        <v>33.000000000000007</v>
+        <f>D3/2</f>
+        <v>49.500000000000007</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" si="0"/>
-        <v>1782.0000000000005</v>
+        <v>2673.0000000000005</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" si="7"/>
@@ -2064,7 +2064,7 @@
       </c>
       <c r="K35" s="1">
         <f t="shared" si="3"/>
-        <v>2022.0000000000005</v>
+        <v>2913.0000000000005</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2080,12 +2080,12 @@
         <v>53.5</v>
       </c>
       <c r="D36" s="1">
-        <f>D3/3</f>
-        <v>33.000000000000007</v>
+        <f>D3/2</f>
+        <v>49.500000000000007</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" si="0"/>
-        <v>1765.5000000000005</v>
+        <v>2648.2500000000005</v>
       </c>
       <c r="F36" s="2">
         <f t="shared" si="7"/>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="K36" s="1">
         <f t="shared" si="3"/>
-        <v>2015.5000000000005</v>
+        <v>2898.2500000000005</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2125,12 +2125,12 @@
         <v>53</v>
       </c>
       <c r="D37" s="1">
-        <f>D3/3</f>
-        <v>33.000000000000007</v>
+        <f>D3/2</f>
+        <v>49.500000000000007</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" si="0"/>
-        <v>1749.0000000000005</v>
+        <v>2623.5000000000005</v>
       </c>
       <c r="F37" s="2">
         <f t="shared" si="7"/>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="K37" s="1">
         <f t="shared" si="3"/>
-        <v>2009.0000000000005</v>
+        <v>2883.5000000000005</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2170,12 +2170,12 @@
         <v>52.5</v>
       </c>
       <c r="D38" s="1">
-        <f>D3/3</f>
-        <v>33.000000000000007</v>
+        <f>D3/2</f>
+        <v>49.500000000000007</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" si="0"/>
-        <v>1732.5000000000005</v>
+        <v>2598.7500000000005</v>
       </c>
       <c r="F38" s="2">
         <f t="shared" si="7"/>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="K38" s="1">
         <f t="shared" si="3"/>
-        <v>2002.5000000000005</v>
+        <v>2868.7500000000005</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -2208,7 +2208,7 @@
       </c>
       <c r="C40" s="3">
         <f>FLOOR(SUM(K3:K38),0.1)</f>
-        <v>208017</v>
+        <v>211531.5</v>
       </c>
       <c r="D40" s="1"/>
     </row>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067AAB26-5464-47B1-8146-C418E7D812D8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1E86AD-D188-496A-AAF3-2317A9BE245F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="K3" s="1">
-        <f>J3+E3</f>
+        <f>E3+J3</f>
         <v>6930.0000000000009</v>
       </c>
     </row>
@@ -668,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="1">
-        <f t="shared" ref="K4:K38" si="3">J4+E4</f>
+        <f t="shared" ref="K4:K38" si="3">E4+J4</f>
         <v>6880.5000000000009</v>
       </c>
     </row>

--- a/LR3/table_1_90.xlsx
+++ b/LR3/table_1_90.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1E86AD-D188-496A-AAF3-2317A9BE245F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FE30E1D-0D85-4EBE-8D8A-EB3F5143BFA9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -527,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K38"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2207,8 +2207,8 @@
         <v>8</v>
       </c>
       <c r="C40" s="3">
-        <f>FLOOR(SUM(K3:K38),0.1)</f>
-        <v>211531.5</v>
+        <f>FLOOR(SUM(K3:K38),1)</f>
+        <v>211531</v>
       </c>
       <c r="D40" s="1"/>
     </row>
